--- a/Feature Analysis/LR_analysis.xlsx
+++ b/Feature Analysis/LR_analysis.xlsx
@@ -8,19 +8,60 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barberademol/Desktop/MLanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9489AAEC-636F-A642-958E-195EA8206947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2335A951-D304-384E-B13C-32C6451188A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="1460" windowWidth="26760" windowHeight="16040"/>
+    <workbookView xWindow="9300" yWindow="460" windowWidth="10000" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LR_analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="imported" sheetId="2" r:id="rId2"/>
+    <sheet name="abs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">abs!$A$1:$C$54</definedName>
+    <definedName name="LR_analysis" localSheetId="2">abs!$A$1:$C$54</definedName>
+    <definedName name="LR_analysis" localSheetId="1">imported!$A$1:$C$54</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="LR_analysis" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/barberademol/Desktop/ML_12/LR_analysis.csv" decimal="," thousands="." comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="LR_analysis1" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/barberademol/Desktop/ML_12/LR_analysis.csv" decimal="," thousands="." comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>,Principal Component Vector Number,Class importance</t>
   </si>
@@ -182,6 +223,12 @@
   </si>
   <si>
     <t>52,53,0.45098607854981454</t>
+  </si>
+  <si>
+    <t>Principal Component Vector Number</t>
+  </si>
+  <si>
+    <t>Class importance</t>
   </si>
 </sst>
 </file>
@@ -665,8 +712,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -723,6 +773,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LR_analysis" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LR_analysis" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1024,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1301,4 +1359,1282 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.24006274799758201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-0.30707128492695202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-0.18945726313789901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.10037897330995101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-0.58797215704603201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.25629263332414798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.8076892257472996E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.7550600679937003E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-0.38170872335260098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-4.8414676777320503E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-0.18277194177643699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-0.292439965141019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6.2638344378549995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-7.7508507765833897E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.1342176439499299E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4.1496922356178301E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-4.5318034027186802E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-5.0048296284337997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-0.60795223421789801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-0.60023702267889401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.0829987005462401E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>9.1291715054339195E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.29742777613681598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3.8696087673119897E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-0.13790684564505501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-5.3272686071846001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.05211690760152E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.52678838556542396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5.2917592696045601E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6.5933955872335998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-0.43361044973242302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-0.26624111631203201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.231426213996276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-0.20664592360440001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-0.18142552288764499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.5520871868400401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-0.80285670360792805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.58396167892043505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1">
+        <v>-0.6386042508816</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.81408487575327504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-1.0851895644646601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1">
+        <v>-3.0456365458151301E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1">
+        <v>-1.3502971239400301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1">
+        <v>-0.55065803616115905</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1">
+        <v>7.1030016986794994E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1">
+        <v>-0.16510676757936299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.47330374178741402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.153299734933208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1.7816750176638101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.67663081964986804</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1">
+        <v>-0.33529148501533601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1">
+        <v>-0.27591168218026102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.45098607854981398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2">
+        <f>ABS(imported!C50)</f>
+        <v>1.7816750176638101</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
+        <f>ABS(imported!C37)</f>
+        <v>1.5520871868400401</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2">
+        <f>ABS(imported!C44)</f>
+        <v>1.3502971239400301</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2">
+        <f>ABS(imported!C42)</f>
+        <v>1.0851895644646601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2">
+        <f>ABS(imported!C41)</f>
+        <v>0.81408487575327504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2">
+        <f>ABS(imported!C38)</f>
+        <v>0.80285670360792805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <f>ABS(imported!C51)</f>
+        <v>0.67663081964986804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2">
+        <f>ABS(imported!C40)</f>
+        <v>0.6386042508816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <f>ABS(imported!C20)</f>
+        <v>0.60795223421789801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <f>ABS(imported!C21)</f>
+        <v>0.60023702267889401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <f>ABS(imported!C6)</f>
+        <v>0.58797215704603201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2">
+        <f>ABS(imported!C39)</f>
+        <v>0.58396167892043505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2">
+        <f>ABS(imported!C45)</f>
+        <v>0.55065803616115905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2">
+        <f>ABS(imported!C29)</f>
+        <v>0.52678838556542396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2">
+        <f>ABS(imported!C48)</f>
+        <v>0.47330374178741402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2">
+        <f>ABS(imported!C54)</f>
+        <v>0.45098607854981398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2">
+        <f>ABS(imported!C32)</f>
+        <v>0.43361044973242302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2">
+        <f>ABS(imported!C10)</f>
+        <v>0.38170872335260098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2">
+        <f>ABS(imported!C52)</f>
+        <v>0.33529148501533601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <f>ABS(imported!C3)</f>
+        <v>0.30707128492695202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
+        <f>ABS(imported!C24)</f>
+        <v>0.29742777613681598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
+        <f>ABS(imported!C13)</f>
+        <v>0.292439965141019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2">
+        <f>ABS(imported!C53)</f>
+        <v>0.27591168218026102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2">
+        <f>ABS(imported!C33)</f>
+        <v>0.26624111631203201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2">
+        <f>ABS(imported!C7)</f>
+        <v>0.25629263332414798</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <f>ABS(imported!C2)</f>
+        <v>0.24006274799758201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28" s="2">
+        <f>ABS(imported!C34)</f>
+        <v>0.231426213996276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2">
+        <f>ABS(imported!C35)</f>
+        <v>0.20664592360440001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
+        <f>ABS(imported!C4)</f>
+        <v>0.18945726313789901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31" s="2">
+        <f>ABS(imported!C12)</f>
+        <v>0.18277194177643699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>35</v>
+      </c>
+      <c r="C32" s="2">
+        <f>ABS(imported!C36)</f>
+        <v>0.18142552288764499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2">
+        <f>ABS(imported!C47)</f>
+        <v>0.16510676757936299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>48</v>
+      </c>
+      <c r="C34" s="2">
+        <f>ABS(imported!C49)</f>
+        <v>0.153299734933208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>24</v>
+      </c>
+      <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35" s="2">
+        <f>ABS(imported!C26)</f>
+        <v>0.13790684564505501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <f>ABS(imported!C5)</f>
+        <v>0.10037897330995101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>22</v>
+      </c>
+      <c r="C37" s="2">
+        <f>ABS(imported!C23)</f>
+        <v>9.1291715054339195E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2">
+        <f>ABS(imported!C8)</f>
+        <v>7.8076892257472996E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2">
+        <f>ABS(imported!C46)</f>
+        <v>7.1030016986794994E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>29</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40" s="2">
+        <f>ABS(imported!C31)</f>
+        <v>6.5933955872335998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2">
+        <f>ABS(imported!C14)</f>
+        <v>6.2638344378549995E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>25</v>
+      </c>
+      <c r="B42">
+        <v>26</v>
+      </c>
+      <c r="C42" s="2">
+        <f>ABS(imported!C27)</f>
+        <v>5.3272686071846001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>17</v>
+      </c>
+      <c r="B43">
+        <v>18</v>
+      </c>
+      <c r="C43" s="2">
+        <f>ABS(imported!C19)</f>
+        <v>5.0048296284337997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2">
+        <f>ABS(imported!C11)</f>
+        <v>4.8414676777320503E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45" s="2">
+        <f>ABS(imported!C18)</f>
+        <v>4.5318034027186802E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2">
+        <f>ABS(imported!C17)</f>
+        <v>4.1496922356178301E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47" s="2">
+        <f>ABS(imported!C16)</f>
+        <v>4.1342176439499299E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>23</v>
+      </c>
+      <c r="B48">
+        <v>24</v>
+      </c>
+      <c r="C48" s="2">
+        <f>ABS(imported!C25)</f>
+        <v>3.8696087673119897E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>41</v>
+      </c>
+      <c r="B49">
+        <v>42</v>
+      </c>
+      <c r="C49" s="2">
+        <f>ABS(imported!C43)</f>
+        <v>3.0456365458151301E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>21</v>
+      </c>
+      <c r="C50" s="2">
+        <f>ABS(imported!C22)</f>
+        <v>1.0829987005462401E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>26</v>
+      </c>
+      <c r="B51">
+        <v>27</v>
+      </c>
+      <c r="C51" s="2">
+        <f>ABS(imported!C28)</f>
+        <v>1.05211690760152E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>14</v>
+      </c>
+      <c r="C52" s="2">
+        <f>ABS(imported!C15)</f>
+        <v>7.7508507765833897E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>28</v>
+      </c>
+      <c r="B53">
+        <v>29</v>
+      </c>
+      <c r="C53" s="2">
+        <f>ABS(imported!C30)</f>
+        <v>5.2917592696045601E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54" s="2">
+        <f>ABS(imported!C9)</f>
+        <v>4.7550600679937003E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C54">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C54">
+      <sortCondition descending="1" ref="C1:C54"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>